--- a/battleofballs_top_report/菲时报-模板.xlsx
+++ b/battleofballs_top_report/菲时报-模板.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="21">
   <si>
     <t>菲时报24小时实时播报(3月)</t>
   </si>
@@ -301,12 +301,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCFCFCF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,6 +308,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6CEEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,9 +534,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -548,7 +546,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -571,10 +571,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color rgb="FF000000"/>
-      </right>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -829,98 +829,103 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1268,7 +1273,7 @@
     <col min="13" max="13" width="7.5" style="16" customWidth="1"/>
     <col min="14" max="14" width="12.5" style="16" customWidth="1"/>
     <col min="15" max="15" width="9.91666666666667" style="16" customWidth="1"/>
-    <col min="16" max="16" width="17.0833333333333" style="31" customWidth="1"/>
+    <col min="16" max="16" width="17.0833333333333" style="29" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1288,40 +1293,40 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20">
+      <c r="O2" s="17"/>
+      <c r="P2" s="18">
         <f ca="1">TODAY()</f>
-        <v>44986</v>
-      </c>
-      <c r="Q2" s="29">
+        <v>44987</v>
+      </c>
+      <c r="Q2" s="27">
         <f ca="1">NOW()</f>
-        <v>44986.7779166667</v>
+        <v>44987.4468402778</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1331,62 +1336,62 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="21" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="M3" s="24"/>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="5"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12">
         <f>B4+38</f>
         <v>38</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13">
         <f t="shared" ref="E4:I4" si="0">D4-B4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23">
         <f t="shared" ref="K4" si="1">J4-H4</f>
         <v>0</v>
       </c>
@@ -1395,15 +1400,15 @@
         <f t="shared" ref="M4" si="2">L4-J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="25" t="s">
+      <c r="N4" s="25"/>
+      <c r="O4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="26">
         <f>MAX(B4,D4,F4,H4,J4,L4,N4)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="28">
         <f>P4+38</f>
         <v>38</v>
       </c>
@@ -1415,62 +1420,62 @@
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="21" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23" t="s">
+      <c r="K5" s="23"/>
+      <c r="L5" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="24"/>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="27" t="s">
+      <c r="O5" s="25"/>
+      <c r="P5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12">
         <f t="shared" ref="C6:C10" si="3">B6-L4</f>
         <v>0</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13">
         <f t="shared" ref="E6" si="4">D6-B6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9">
         <f t="shared" ref="G6" si="5">F6-D6</f>
         <v>0</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13">
+      <c r="H6" s="14"/>
+      <c r="I6" s="14">
         <f t="shared" ref="I6" si="6">H6-F6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22">
+      <c r="J6" s="23"/>
+      <c r="K6" s="23">
         <f t="shared" ref="K6" si="7">J6-H6</f>
         <v>0</v>
       </c>
@@ -1479,15 +1484,15 @@
         <f t="shared" ref="M6" si="8">L6-J6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="25" t="s">
+      <c r="N6" s="25"/>
+      <c r="O6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="26">
         <f>MAX(B6,D6,F6,H6,J6,L6,N6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="28">
         <f>P6-P4</f>
         <v>0</v>
       </c>
@@ -1499,62 +1504,62 @@
       <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="23"/>
+      <c r="L7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M7" s="24"/>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="27" t="s">
+      <c r="O7" s="25"/>
+      <c r="P7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13">
         <f t="shared" ref="E8" si="9">D8-B8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9">
         <f t="shared" ref="G8" si="10">F8-D8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13">
+      <c r="H8" s="14"/>
+      <c r="I8" s="14">
         <f t="shared" ref="I8" si="11">H8-F8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22">
+      <c r="J8" s="23"/>
+      <c r="K8" s="23">
         <f t="shared" ref="K8" si="12">J8-H8</f>
         <v>0</v>
       </c>
@@ -1563,15 +1568,15 @@
         <f t="shared" ref="M8" si="13">L8-J8</f>
         <v>0</v>
       </c>
-      <c r="N8" s="26"/>
-      <c r="O8" s="25" t="s">
+      <c r="N8" s="25"/>
+      <c r="O8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="26">
         <f>MAX(B8,D8,F8,H8,J8,L8,N8)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="28">
         <f>P8-P6</f>
         <v>0</v>
       </c>
@@ -1583,62 +1588,62 @@
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="21" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23" t="s">
+      <c r="K9" s="23"/>
+      <c r="L9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M9" s="24"/>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27" t="s">
+      <c r="O9" s="25"/>
+      <c r="P9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="27" t="s">
+      <c r="Q9" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="5"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13">
         <f t="shared" ref="E10" si="14">D10-B10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
         <f t="shared" ref="G10" si="15">F10-D10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13">
+      <c r="H10" s="14"/>
+      <c r="I10" s="14">
         <f t="shared" ref="I10" si="16">H10-F10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22">
+      <c r="J10" s="23"/>
+      <c r="K10" s="23">
         <f t="shared" ref="K10" si="17">J10-H10</f>
         <v>0</v>
       </c>
@@ -1647,15 +1652,15 @@
         <f t="shared" ref="M10" si="18">L10-J10</f>
         <v>0</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="25" t="s">
+      <c r="N10" s="25"/>
+      <c r="O10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="26">
         <f t="shared" ref="P10" si="19">MAX(B10,D10,F10,H10,J10,L10,N10)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="28">
         <f t="shared" ref="Q10" si="20">P10-P8</f>
         <v>0</v>
       </c>
@@ -1667,62 +1672,62 @@
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="21" t="s">
+      <c r="I11" s="14"/>
+      <c r="J11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23" t="s">
+      <c r="K11" s="23"/>
+      <c r="L11" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="24"/>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27" t="s">
+      <c r="O11" s="25"/>
+      <c r="P11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" s="27" t="s">
+      <c r="Q11" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="5"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12">
         <f t="shared" ref="C12:C16" si="21">B12-L10</f>
         <v>0</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13">
         <f t="shared" ref="E12" si="22">D12-B12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9">
         <f t="shared" ref="G12" si="23">F12-D12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13">
+      <c r="H12" s="14"/>
+      <c r="I12" s="14">
         <f t="shared" ref="I12" si="24">H12-F12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22">
+      <c r="J12" s="23"/>
+      <c r="K12" s="23">
         <f t="shared" ref="K12" si="25">J12-H12</f>
         <v>0</v>
       </c>
@@ -1731,15 +1736,15 @@
         <f t="shared" ref="M12" si="26">L12-J12</f>
         <v>0</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="25" t="s">
+      <c r="N12" s="25"/>
+      <c r="O12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="26">
         <f t="shared" ref="P12" si="27">MAX(B12,D12,F12,H12,J12,L12,N12)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="28">
         <f t="shared" ref="Q12" si="28">P12-P10</f>
         <v>0</v>
       </c>
@@ -1751,62 +1756,62 @@
       <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="21" t="s">
+      <c r="I13" s="14"/>
+      <c r="J13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23" t="s">
+      <c r="K13" s="23"/>
+      <c r="L13" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M13" s="24"/>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27" t="s">
+      <c r="O13" s="25"/>
+      <c r="P13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="Q13" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="5"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13">
         <f t="shared" ref="E14" si="29">D14-B14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9">
         <f t="shared" ref="G14" si="30">F14-D14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13">
+      <c r="H14" s="14"/>
+      <c r="I14" s="14">
         <f t="shared" ref="I14" si="31">H14-F14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22">
+      <c r="J14" s="23"/>
+      <c r="K14" s="23">
         <f t="shared" ref="K14" si="32">J14-H14</f>
         <v>0</v>
       </c>
@@ -1815,15 +1820,15 @@
         <f t="shared" ref="M14" si="33">L14-J14</f>
         <v>0</v>
       </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="25" t="s">
+      <c r="N14" s="25"/>
+      <c r="O14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P14" s="28">
+      <c r="P14" s="26">
         <f t="shared" ref="P14" si="34">MAX(B14,D14,F14,H14,J14,L14,N14)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q14" s="28">
         <f t="shared" ref="Q14" si="35">P14-P12</f>
         <v>0</v>
       </c>
@@ -1835,62 +1840,62 @@
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="21" t="s">
+      <c r="I15" s="14"/>
+      <c r="J15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23" t="s">
+      <c r="K15" s="23"/>
+      <c r="L15" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M15" s="24"/>
-      <c r="N15" s="25" t="s">
+      <c r="N15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="27" t="s">
+      <c r="O15" s="25"/>
+      <c r="P15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13">
         <f t="shared" ref="E16" si="36">D16-B16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
         <f t="shared" ref="G16" si="37">F16-D16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13">
+      <c r="H16" s="14"/>
+      <c r="I16" s="14">
         <f t="shared" ref="I16" si="38">H16-F16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22">
+      <c r="J16" s="23"/>
+      <c r="K16" s="23">
         <f t="shared" ref="K16" si="39">J16-H16</f>
         <v>0</v>
       </c>
@@ -1899,15 +1904,15 @@
         <f t="shared" ref="M16" si="40">L16-J16</f>
         <v>0</v>
       </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="25" t="s">
+      <c r="N16" s="25"/>
+      <c r="O16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P16" s="28">
+      <c r="P16" s="26">
         <f t="shared" ref="P16" si="41">MAX(B16,D16,F16,H16,J16,L16,N16)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="28">
         <f t="shared" ref="Q16" si="42">P16-P14</f>
         <v>0</v>
       </c>
@@ -1919,62 +1924,62 @@
       <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="21" t="s">
+      <c r="I17" s="14"/>
+      <c r="J17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23" t="s">
+      <c r="K17" s="23"/>
+      <c r="L17" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="24"/>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27" t="s">
+      <c r="O17" s="25"/>
+      <c r="P17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q17" s="27" t="s">
+      <c r="Q17" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12">
         <f t="shared" ref="C18:C22" si="43">B18-L16</f>
         <v>0</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13">
         <f t="shared" ref="E18" si="44">D18-B18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9">
         <f t="shared" ref="G18" si="45">F18-D18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13">
+      <c r="H18" s="14"/>
+      <c r="I18" s="14">
         <f t="shared" ref="I18" si="46">H18-F18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22">
+      <c r="J18" s="23"/>
+      <c r="K18" s="23">
         <f t="shared" ref="K18" si="47">J18-H18</f>
         <v>0</v>
       </c>
@@ -1983,15 +1988,15 @@
         <f t="shared" ref="M18" si="48">L18-J18</f>
         <v>0</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="25" t="s">
+      <c r="N18" s="25"/>
+      <c r="O18" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="26">
         <f t="shared" ref="P18" si="49">MAX(B18,D18,F18,H18,J18,L18,N18)</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="Q18" s="28">
         <f t="shared" ref="Q18" si="50">P18-P16</f>
         <v>0</v>
       </c>
@@ -2003,62 +2008,62 @@
       <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="21" t="s">
+      <c r="I19" s="14"/>
+      <c r="J19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23" t="s">
+      <c r="K19" s="23"/>
+      <c r="L19" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M19" s="24"/>
-      <c r="N19" s="25" t="s">
+      <c r="N19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="26"/>
-      <c r="P19" s="27" t="s">
+      <c r="O19" s="25"/>
+      <c r="P19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="27" t="s">
+      <c r="Q19" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="5"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13">
         <f t="shared" ref="E20" si="51">D20-B20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9">
         <f t="shared" ref="G20" si="52">F20-D20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13">
+      <c r="H20" s="14"/>
+      <c r="I20" s="14">
         <f t="shared" ref="I20" si="53">H20-F20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22">
+      <c r="J20" s="23"/>
+      <c r="K20" s="23">
         <f t="shared" ref="K20" si="54">J20-H20</f>
         <v>0</v>
       </c>
@@ -2067,15 +2072,15 @@
         <f t="shared" ref="M20" si="55">L20-J20</f>
         <v>0</v>
       </c>
-      <c r="N20" s="26"/>
-      <c r="O20" s="25" t="s">
+      <c r="N20" s="25"/>
+      <c r="O20" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P20" s="28">
+      <c r="P20" s="26">
         <f t="shared" ref="P20" si="56">MAX(B20,D20,F20,H20,J20,L20,N20)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="Q20" s="28">
         <f t="shared" ref="Q20" si="57">P20-P18</f>
         <v>0</v>
       </c>
@@ -2087,62 +2092,62 @@
       <c r="B21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="21" t="s">
+      <c r="I21" s="14"/>
+      <c r="J21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23" t="s">
+      <c r="K21" s="23"/>
+      <c r="L21" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M21" s="24"/>
-      <c r="N21" s="25" t="s">
+      <c r="N21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="27" t="s">
+      <c r="O21" s="25"/>
+      <c r="P21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="27" t="s">
+      <c r="Q21" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="5"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13">
         <f t="shared" ref="E22" si="58">D22-B22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9">
         <f t="shared" ref="G22" si="59">F22-D22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13">
+      <c r="H22" s="14"/>
+      <c r="I22" s="14">
         <f t="shared" ref="I22:I44" si="60">H22-F22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22">
+      <c r="J22" s="23"/>
+      <c r="K22" s="23">
         <f t="shared" ref="K22" si="61">J22-H22</f>
         <v>0</v>
       </c>
@@ -2151,15 +2156,15 @@
         <f t="shared" ref="M22" si="62">L22-J22</f>
         <v>0</v>
       </c>
-      <c r="N22" s="26"/>
-      <c r="O22" s="25" t="s">
+      <c r="N22" s="25"/>
+      <c r="O22" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P22" s="28">
+      <c r="P22" s="26">
         <f t="shared" ref="P22" si="63">MAX(B22,D22,F22,H22,J22,L22,N22)</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="Q22" s="28">
         <f t="shared" ref="Q22" si="64">P22-P20</f>
         <v>0</v>
       </c>
@@ -2171,62 +2176,62 @@
       <c r="B23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12" t="s">
+      <c r="G23" s="9"/>
+      <c r="H23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="21" t="s">
+      <c r="I23" s="14"/>
+      <c r="J23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="23" t="s">
+      <c r="K23" s="23"/>
+      <c r="L23" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="24"/>
-      <c r="N23" s="25" t="s">
+      <c r="N23" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="26"/>
-      <c r="P23" s="27" t="s">
+      <c r="O23" s="25"/>
+      <c r="P23" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q23" s="27" t="s">
+      <c r="Q23" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="5"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12">
         <f t="shared" ref="C24:C28" si="65">B24-L22</f>
         <v>0</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13">
         <f t="shared" ref="E24" si="66">D24-B24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9">
         <f t="shared" ref="G24" si="67">F24-D24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13">
+      <c r="H24" s="14"/>
+      <c r="I24" s="14">
         <f t="shared" ref="I24" si="68">H24-F24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22">
+      <c r="J24" s="23"/>
+      <c r="K24" s="23">
         <f t="shared" ref="K24" si="69">J24-H24</f>
         <v>0</v>
       </c>
@@ -2235,15 +2240,15 @@
         <f t="shared" ref="M24" si="70">L24-J24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="25" t="s">
+      <c r="N24" s="25"/>
+      <c r="O24" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P24" s="28">
+      <c r="P24" s="26">
         <f t="shared" ref="P24" si="71">MAX(B24,D24,F24,H24,J24,L24,N24)</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="30">
+      <c r="Q24" s="28">
         <f t="shared" ref="Q24" si="72">P24-P22</f>
         <v>0</v>
       </c>
@@ -2255,62 +2260,62 @@
       <c r="B25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="21" t="s">
+      <c r="I25" s="14"/>
+      <c r="J25" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23" t="s">
+      <c r="K25" s="23"/>
+      <c r="L25" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M25" s="24"/>
-      <c r="N25" s="25" t="s">
+      <c r="N25" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="27" t="s">
+      <c r="O25" s="25"/>
+      <c r="P25" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q25" s="27" t="s">
+      <c r="Q25" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="5"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13">
         <f t="shared" ref="E26" si="73">D26-B26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
         <f t="shared" ref="G26" si="74">F26-D26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13">
+      <c r="H26" s="14"/>
+      <c r="I26" s="14">
         <f t="shared" ref="I26:I44" si="75">H26-F26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22">
+      <c r="J26" s="23"/>
+      <c r="K26" s="23">
         <f t="shared" ref="K26" si="76">J26-H26</f>
         <v>0</v>
       </c>
@@ -2319,15 +2324,15 @@
         <f t="shared" ref="M26" si="77">L26-J26</f>
         <v>0</v>
       </c>
-      <c r="N26" s="26"/>
-      <c r="O26" s="25" t="s">
+      <c r="N26" s="25"/>
+      <c r="O26" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P26" s="28">
+      <c r="P26" s="26">
         <f t="shared" ref="P26" si="78">MAX(B26,D26,F26,H26,J26,L26,N26)</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="30">
+      <c r="Q26" s="28">
         <f t="shared" ref="Q26" si="79">P26-P24</f>
         <v>0</v>
       </c>
@@ -2339,62 +2344,62 @@
       <c r="B27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10" t="s">
+      <c r="E27" s="13"/>
+      <c r="F27" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="21" t="s">
+      <c r="I27" s="14"/>
+      <c r="J27" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23" t="s">
+      <c r="K27" s="23"/>
+      <c r="L27" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M27" s="24"/>
-      <c r="N27" s="25" t="s">
+      <c r="N27" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="27" t="s">
+      <c r="O27" s="25"/>
+      <c r="P27" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q27" s="27" t="s">
+      <c r="Q27" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="5"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12">
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9">
+      <c r="D28" s="13"/>
+      <c r="E28" s="13">
         <f t="shared" ref="E28" si="80">D28-B28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9">
         <f t="shared" ref="G28" si="81">F28-D28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13">
+      <c r="H28" s="14"/>
+      <c r="I28" s="14">
         <f t="shared" ref="I28" si="82">H28-F28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22">
+      <c r="J28" s="23"/>
+      <c r="K28" s="23">
         <f t="shared" ref="K28" si="83">J28-H28</f>
         <v>0</v>
       </c>
@@ -2403,15 +2408,15 @@
         <f t="shared" ref="M28" si="84">L28-J28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="26"/>
-      <c r="O28" s="25" t="s">
+      <c r="N28" s="25"/>
+      <c r="O28" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P28" s="28">
+      <c r="P28" s="26">
         <f t="shared" ref="P28" si="85">MAX(B28,D28,F28,H28,J28,L28,N28)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="30">
+      <c r="Q28" s="28">
         <f t="shared" ref="Q28" si="86">P28-P26</f>
         <v>0</v>
       </c>
@@ -2423,62 +2428,62 @@
       <c r="B29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10" t="s">
+      <c r="E29" s="13"/>
+      <c r="F29" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="21" t="s">
+      <c r="I29" s="14"/>
+      <c r="J29" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23" t="s">
+      <c r="K29" s="23"/>
+      <c r="L29" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M29" s="24"/>
-      <c r="N29" s="25" t="s">
+      <c r="N29" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="26"/>
-      <c r="P29" s="27" t="s">
+      <c r="O29" s="25"/>
+      <c r="P29" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q29" s="27" t="s">
+      <c r="Q29" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="5"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12">
         <f t="shared" ref="C30:C34" si="87">B30-L28</f>
         <v>0</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9">
+      <c r="D30" s="13"/>
+      <c r="E30" s="13">
         <f t="shared" ref="E30" si="88">D30-B30</f>
         <v>0</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9">
         <f t="shared" ref="G30" si="89">F30-D30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13">
+      <c r="H30" s="14"/>
+      <c r="I30" s="14">
         <f t="shared" ref="I30:I44" si="90">H30-F30</f>
         <v>0</v>
       </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22">
+      <c r="J30" s="23"/>
+      <c r="K30" s="23">
         <f t="shared" ref="K30" si="91">J30-H30</f>
         <v>0</v>
       </c>
@@ -2487,15 +2492,15 @@
         <f t="shared" ref="M30" si="92">L30-J30</f>
         <v>0</v>
       </c>
-      <c r="N30" s="26"/>
-      <c r="O30" s="25" t="s">
+      <c r="N30" s="25"/>
+      <c r="O30" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P30" s="28">
+      <c r="P30" s="26">
         <f t="shared" ref="P30" si="93">MAX(B30,D30,F30,H30,J30,L30,N30)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="30">
+      <c r="Q30" s="28">
         <f t="shared" ref="Q30" si="94">P30-P28</f>
         <v>0</v>
       </c>
@@ -2507,62 +2512,62 @@
       <c r="B31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10" t="s">
+      <c r="E31" s="13"/>
+      <c r="F31" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12" t="s">
+      <c r="G31" s="9"/>
+      <c r="H31" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="21" t="s">
+      <c r="I31" s="14"/>
+      <c r="J31" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23" t="s">
+      <c r="K31" s="23"/>
+      <c r="L31" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M31" s="24"/>
-      <c r="N31" s="25" t="s">
+      <c r="N31" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O31" s="26"/>
-      <c r="P31" s="27" t="s">
+      <c r="O31" s="25"/>
+      <c r="P31" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q31" s="27" t="s">
+      <c r="Q31" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="5"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12">
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13">
         <f t="shared" ref="E32" si="95">D32-B32</f>
         <v>0</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9">
         <f t="shared" ref="G32" si="96">F32-D32</f>
         <v>0</v>
       </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13">
+      <c r="H32" s="14"/>
+      <c r="I32" s="14">
         <f t="shared" ref="I32" si="97">H32-F32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22">
+      <c r="J32" s="23"/>
+      <c r="K32" s="23">
         <f t="shared" ref="K32" si="98">J32-H32</f>
         <v>0</v>
       </c>
@@ -2571,15 +2576,15 @@
         <f t="shared" ref="M32" si="99">L32-J32</f>
         <v>0</v>
       </c>
-      <c r="N32" s="26"/>
-      <c r="O32" s="25" t="s">
+      <c r="N32" s="25"/>
+      <c r="O32" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P32" s="28">
+      <c r="P32" s="26">
         <f t="shared" ref="P32" si="100">MAX(B32,D32,F32,H32,J32,L32,N32)</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="30">
+      <c r="Q32" s="28">
         <f t="shared" ref="Q32" si="101">P32-P30</f>
         <v>0</v>
       </c>
@@ -2591,62 +2596,62 @@
       <c r="B33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10" t="s">
+      <c r="E33" s="13"/>
+      <c r="F33" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12" t="s">
+      <c r="G33" s="9"/>
+      <c r="H33" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="21" t="s">
+      <c r="I33" s="14"/>
+      <c r="J33" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="23" t="s">
+      <c r="K33" s="23"/>
+      <c r="L33" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M33" s="24"/>
-      <c r="N33" s="25" t="s">
+      <c r="N33" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O33" s="26"/>
-      <c r="P33" s="27" t="s">
+      <c r="O33" s="25"/>
+      <c r="P33" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q33" s="27" t="s">
+      <c r="Q33" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="5"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7">
+      <c r="B34" s="12"/>
+      <c r="C34" s="12">
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13">
         <f t="shared" ref="E34" si="102">D34-B34</f>
         <v>0</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11">
+      <c r="F34" s="9"/>
+      <c r="G34" s="9">
         <f t="shared" ref="G34" si="103">F34-D34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13">
+      <c r="H34" s="14"/>
+      <c r="I34" s="14">
         <f t="shared" ref="I34:I44" si="104">H34-F34</f>
         <v>0</v>
       </c>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22">
+      <c r="J34" s="23"/>
+      <c r="K34" s="23">
         <f t="shared" ref="K34" si="105">J34-H34</f>
         <v>0</v>
       </c>
@@ -2655,15 +2660,15 @@
         <f t="shared" ref="M34" si="106">L34-J34</f>
         <v>0</v>
       </c>
-      <c r="N34" s="26"/>
-      <c r="O34" s="25" t="s">
+      <c r="N34" s="25"/>
+      <c r="O34" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P34" s="28">
+      <c r="P34" s="26">
         <f t="shared" ref="P34" si="107">MAX(B34,D34,F34,H34,J34,L34,N34)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="30">
+      <c r="Q34" s="28">
         <f t="shared" ref="Q34" si="108">P34-P32</f>
         <v>0</v>
       </c>
@@ -2675,62 +2680,62 @@
       <c r="B35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10" t="s">
+      <c r="E35" s="13"/>
+      <c r="F35" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12" t="s">
+      <c r="G35" s="9"/>
+      <c r="H35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="21" t="s">
+      <c r="I35" s="14"/>
+      <c r="J35" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="23" t="s">
+      <c r="K35" s="23"/>
+      <c r="L35" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M35" s="24"/>
-      <c r="N35" s="25" t="s">
+      <c r="N35" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O35" s="26"/>
-      <c r="P35" s="27" t="s">
+      <c r="O35" s="25"/>
+      <c r="P35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q35" s="27" t="s">
+      <c r="Q35" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="5"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12">
         <f t="shared" ref="C36:C40" si="109">B36-L34</f>
         <v>0</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9">
+      <c r="D36" s="13"/>
+      <c r="E36" s="13">
         <f t="shared" ref="E36" si="110">D36-B36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11">
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
         <f t="shared" ref="G36" si="111">F36-D36</f>
         <v>0</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13">
+      <c r="H36" s="14"/>
+      <c r="I36" s="14">
         <f t="shared" ref="I36" si="112">H36-F36</f>
         <v>0</v>
       </c>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22">
+      <c r="J36" s="23"/>
+      <c r="K36" s="23">
         <f t="shared" ref="K36" si="113">J36-H36</f>
         <v>0</v>
       </c>
@@ -2739,15 +2744,15 @@
         <f t="shared" ref="M36" si="114">L36-J36</f>
         <v>0</v>
       </c>
-      <c r="N36" s="26"/>
-      <c r="O36" s="25" t="s">
+      <c r="N36" s="25"/>
+      <c r="O36" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P36" s="28">
+      <c r="P36" s="26">
         <f t="shared" ref="P36" si="115">MAX(B36,D36,F36,H36,J36,L36,N36)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="30">
+      <c r="Q36" s="28">
         <f t="shared" ref="Q36" si="116">P36-P34</f>
         <v>0</v>
       </c>
@@ -2759,62 +2764,62 @@
       <c r="B37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10" t="s">
+      <c r="E37" s="13"/>
+      <c r="F37" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12" t="s">
+      <c r="G37" s="9"/>
+      <c r="H37" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="21" t="s">
+      <c r="I37" s="14"/>
+      <c r="J37" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="22"/>
-      <c r="L37" s="23" t="s">
+      <c r="K37" s="23"/>
+      <c r="L37" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M37" s="24"/>
-      <c r="N37" s="25" t="s">
+      <c r="N37" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O37" s="26"/>
-      <c r="P37" s="27" t="s">
+      <c r="O37" s="25"/>
+      <c r="P37" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" s="27" t="s">
+      <c r="Q37" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="5"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9">
+      <c r="D38" s="13"/>
+      <c r="E38" s="13">
         <f t="shared" ref="E38" si="117">D38-B38</f>
         <v>0</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11">
+      <c r="F38" s="9"/>
+      <c r="G38" s="9">
         <f t="shared" ref="G38" si="118">F38-D38</f>
         <v>0</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13">
+      <c r="H38" s="14"/>
+      <c r="I38" s="14">
         <f t="shared" ref="I38:I44" si="119">H38-F38</f>
         <v>0</v>
       </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22">
+      <c r="J38" s="23"/>
+      <c r="K38" s="23">
         <f t="shared" ref="K38" si="120">J38-H38</f>
         <v>0</v>
       </c>
@@ -2823,15 +2828,15 @@
         <f t="shared" ref="M38" si="121">L38-J38</f>
         <v>0</v>
       </c>
-      <c r="N38" s="26"/>
-      <c r="O38" s="25" t="s">
+      <c r="N38" s="25"/>
+      <c r="O38" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P38" s="28">
+      <c r="P38" s="26">
         <f t="shared" ref="P38" si="122">MAX(B38,D38,F38,H38,J38,L38,N38)</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="30">
+      <c r="Q38" s="28">
         <f t="shared" ref="Q38" si="123">P38-P36</f>
         <v>0</v>
       </c>
@@ -2843,62 +2848,62 @@
       <c r="B39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10" t="s">
+      <c r="E39" s="13"/>
+      <c r="F39" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12" t="s">
+      <c r="G39" s="9"/>
+      <c r="H39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="21" t="s">
+      <c r="I39" s="14"/>
+      <c r="J39" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="22"/>
-      <c r="L39" s="23" t="s">
+      <c r="K39" s="23"/>
+      <c r="L39" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M39" s="24"/>
-      <c r="N39" s="25" t="s">
+      <c r="N39" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O39" s="26"/>
-      <c r="P39" s="27" t="s">
+      <c r="O39" s="25"/>
+      <c r="P39" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q39" s="27" t="s">
+      <c r="Q39" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="5"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12">
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9">
+      <c r="D40" s="13"/>
+      <c r="E40" s="13">
         <f t="shared" ref="E40" si="124">D40-B40</f>
         <v>0</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11">
+      <c r="F40" s="9"/>
+      <c r="G40" s="9">
         <f t="shared" ref="G40" si="125">F40-D40</f>
         <v>0</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13">
+      <c r="H40" s="14"/>
+      <c r="I40" s="14">
         <f t="shared" ref="I40" si="126">H40-F40</f>
         <v>0</v>
       </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22">
+      <c r="J40" s="23"/>
+      <c r="K40" s="23">
         <f t="shared" ref="K40" si="127">J40-H40</f>
         <v>0</v>
       </c>
@@ -2907,15 +2912,15 @@
         <f t="shared" ref="M40" si="128">L40-J40</f>
         <v>0</v>
       </c>
-      <c r="N40" s="26"/>
-      <c r="O40" s="25" t="s">
+      <c r="N40" s="25"/>
+      <c r="O40" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P40" s="28">
+      <c r="P40" s="26">
         <f t="shared" ref="P40" si="129">MAX(B40,D40,F40,H40,J40,L40,N40)</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="30">
+      <c r="Q40" s="28">
         <f t="shared" ref="Q40" si="130">P40-P38</f>
         <v>0</v>
       </c>
@@ -2927,62 +2932,62 @@
       <c r="B41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10" t="s">
+      <c r="E41" s="13"/>
+      <c r="F41" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12" t="s">
+      <c r="G41" s="9"/>
+      <c r="H41" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="21" t="s">
+      <c r="I41" s="14"/>
+      <c r="J41" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="22"/>
-      <c r="L41" s="23" t="s">
+      <c r="K41" s="23"/>
+      <c r="L41" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M41" s="24"/>
-      <c r="N41" s="25" t="s">
+      <c r="N41" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O41" s="26"/>
-      <c r="P41" s="27" t="s">
+      <c r="O41" s="25"/>
+      <c r="P41" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q41" s="27" t="s">
+      <c r="Q41" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="5"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12">
         <f t="shared" ref="C42:C46" si="131">B42-L40</f>
         <v>0</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9">
+      <c r="D42" s="13"/>
+      <c r="E42" s="13">
         <f t="shared" ref="E42" si="132">D42-B42</f>
         <v>0</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11">
+      <c r="F42" s="9"/>
+      <c r="G42" s="9">
         <f t="shared" ref="G42" si="133">F42-D42</f>
         <v>0</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13">
+      <c r="H42" s="14"/>
+      <c r="I42" s="14">
         <f t="shared" ref="I42:I44" si="134">H42-F42</f>
         <v>0</v>
       </c>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22">
+      <c r="J42" s="23"/>
+      <c r="K42" s="23">
         <f t="shared" ref="K42" si="135">J42-H42</f>
         <v>0</v>
       </c>
@@ -2991,15 +2996,15 @@
         <f t="shared" ref="M42" si="136">L42-J42</f>
         <v>0</v>
       </c>
-      <c r="N42" s="26"/>
-      <c r="O42" s="25" t="s">
+      <c r="N42" s="25"/>
+      <c r="O42" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P42" s="28">
+      <c r="P42" s="26">
         <f t="shared" ref="P42" si="137">MAX(B42,D42,F42,H42,J42,L42,N42)</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="30">
+      <c r="Q42" s="28">
         <f t="shared" ref="Q42" si="138">P42-P40</f>
         <v>0</v>
       </c>
@@ -3011,62 +3016,62 @@
       <c r="B43" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="10" t="s">
+      <c r="E43" s="13"/>
+      <c r="F43" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="12" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="21" t="s">
+      <c r="I43" s="14"/>
+      <c r="J43" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K43" s="22"/>
-      <c r="L43" s="23" t="s">
+      <c r="K43" s="23"/>
+      <c r="L43" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M43" s="24"/>
-      <c r="N43" s="25" t="s">
+      <c r="N43" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O43" s="26"/>
-      <c r="P43" s="27" t="s">
+      <c r="O43" s="25"/>
+      <c r="P43" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q43" s="27" t="s">
+      <c r="Q43" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="5"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12">
         <f t="shared" si="131"/>
         <v>0</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9">
+      <c r="D44" s="13"/>
+      <c r="E44" s="13">
         <f t="shared" ref="E44" si="139">D44-B44</f>
         <v>0</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11">
+      <c r="F44" s="9"/>
+      <c r="G44" s="9">
         <f t="shared" ref="G44" si="140">F44-D44</f>
         <v>0</v>
       </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13">
+      <c r="H44" s="14"/>
+      <c r="I44" s="14">
         <f t="shared" ref="I44" si="141">H44-F44</f>
         <v>0</v>
       </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22">
+      <c r="J44" s="23"/>
+      <c r="K44" s="23">
         <f t="shared" ref="K44" si="142">J44-H44</f>
         <v>0</v>
       </c>
@@ -3075,15 +3080,15 @@
         <f t="shared" ref="M44" si="143">L44-J44</f>
         <v>0</v>
       </c>
-      <c r="N44" s="26"/>
-      <c r="O44" s="25" t="s">
+      <c r="N44" s="25"/>
+      <c r="O44" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P44" s="28">
+      <c r="P44" s="26">
         <f t="shared" ref="P44" si="144">MAX(B44,D44,F44,H44,J44,L44,N44)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="30">
+      <c r="Q44" s="28">
         <f t="shared" ref="Q44" si="145">P44-P42</f>
         <v>0</v>
       </c>
@@ -3095,62 +3100,62 @@
       <c r="B45" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="10" t="s">
+      <c r="E45" s="13"/>
+      <c r="F45" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="12" t="s">
+      <c r="G45" s="9"/>
+      <c r="H45" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I45" s="13"/>
-      <c r="J45" s="21" t="s">
+      <c r="I45" s="14"/>
+      <c r="J45" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K45" s="22"/>
-      <c r="L45" s="23" t="s">
+      <c r="K45" s="23"/>
+      <c r="L45" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M45" s="24"/>
-      <c r="N45" s="25" t="s">
+      <c r="N45" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O45" s="26"/>
-      <c r="P45" s="27" t="s">
+      <c r="O45" s="25"/>
+      <c r="P45" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q45" s="27" t="s">
+      <c r="Q45" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="5"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12">
         <f t="shared" si="131"/>
         <v>0</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9">
+      <c r="D46" s="13"/>
+      <c r="E46" s="13">
         <f t="shared" ref="E46" si="146">D46-B46</f>
         <v>0</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9">
         <f t="shared" ref="G46" si="147">F46-D46</f>
         <v>0</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13">
+      <c r="H46" s="14"/>
+      <c r="I46" s="14">
         <f t="shared" ref="I46" si="148">H46-F46</f>
         <v>0</v>
       </c>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22">
+      <c r="J46" s="23"/>
+      <c r="K46" s="23">
         <f t="shared" ref="K46" si="149">J46-H46</f>
         <v>0</v>
       </c>
@@ -3159,15 +3164,15 @@
         <f t="shared" ref="M46" si="150">L46-J46</f>
         <v>0</v>
       </c>
-      <c r="N46" s="26"/>
-      <c r="O46" s="25" t="s">
+      <c r="N46" s="25"/>
+      <c r="O46" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P46" s="28">
+      <c r="P46" s="26">
         <f>MAX(B46,D46,F46,H46,J46,L46,N46)</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="30">
+      <c r="Q46" s="28">
         <f>P46-P44</f>
         <v>0</v>
       </c>
@@ -3179,62 +3184,62 @@
       <c r="B47" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="10" t="s">
+      <c r="E47" s="13"/>
+      <c r="F47" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12" t="s">
+      <c r="G47" s="9"/>
+      <c r="H47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="21" t="s">
+      <c r="I47" s="14"/>
+      <c r="J47" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="22"/>
-      <c r="L47" s="23" t="s">
+      <c r="K47" s="23"/>
+      <c r="L47" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M47" s="24"/>
-      <c r="N47" s="25" t="s">
+      <c r="N47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O47" s="26"/>
-      <c r="P47" s="27" t="s">
+      <c r="O47" s="25"/>
+      <c r="P47" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q47" s="27" t="s">
+      <c r="Q47" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="5"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7">
+      <c r="B48" s="12"/>
+      <c r="C48" s="12">
         <f t="shared" ref="C48:C52" si="151">B48-L46</f>
         <v>0</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9">
+      <c r="D48" s="13"/>
+      <c r="E48" s="13">
         <f t="shared" ref="E48" si="152">D48-B48</f>
         <v>0</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9">
         <f t="shared" ref="G48" si="153">F48-D48</f>
         <v>0</v>
       </c>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13">
+      <c r="H48" s="14"/>
+      <c r="I48" s="14">
         <f t="shared" ref="I48" si="154">H48-F48</f>
         <v>0</v>
       </c>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22">
+      <c r="J48" s="23"/>
+      <c r="K48" s="23">
         <f t="shared" ref="K48" si="155">J48-H48</f>
         <v>0</v>
       </c>
@@ -3243,15 +3248,15 @@
         <f t="shared" ref="M48" si="156">L48-J48</f>
         <v>0</v>
       </c>
-      <c r="N48" s="26"/>
-      <c r="O48" s="25" t="s">
+      <c r="N48" s="25"/>
+      <c r="O48" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P48" s="28">
+      <c r="P48" s="26">
         <f>MAX(B48,D48,F48,H48,J48,L48,N48)</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="30">
+      <c r="Q48" s="28">
         <f>P48-P46</f>
         <v>0</v>
       </c>
@@ -3263,62 +3268,62 @@
       <c r="B49" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="10" t="s">
+      <c r="E49" s="13"/>
+      <c r="F49" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="12" t="s">
+      <c r="G49" s="9"/>
+      <c r="H49" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I49" s="13"/>
-      <c r="J49" s="21" t="s">
+      <c r="I49" s="14"/>
+      <c r="J49" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K49" s="22"/>
-      <c r="L49" s="23" t="s">
+      <c r="K49" s="23"/>
+      <c r="L49" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M49" s="24"/>
-      <c r="N49" s="25" t="s">
+      <c r="N49" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O49" s="26"/>
-      <c r="P49" s="27" t="s">
+      <c r="O49" s="25"/>
+      <c r="P49" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q49" s="27" t="s">
+      <c r="Q49" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="5"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7">
+      <c r="B50" s="12"/>
+      <c r="C50" s="12">
         <f t="shared" si="151"/>
         <v>0</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9">
+      <c r="D50" s="13"/>
+      <c r="E50" s="13">
         <f t="shared" ref="E50" si="157">D50-B50</f>
         <v>0</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9">
         <f t="shared" ref="G50" si="158">F50-D50</f>
         <v>0</v>
       </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13">
+      <c r="H50" s="14"/>
+      <c r="I50" s="14">
         <f t="shared" ref="I50" si="159">H50-F50</f>
         <v>0</v>
       </c>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22">
+      <c r="J50" s="23"/>
+      <c r="K50" s="23">
         <f t="shared" ref="K50" si="160">J50-H50</f>
         <v>0</v>
       </c>
@@ -3327,15 +3332,15 @@
         <f t="shared" ref="M50" si="161">L50-J50</f>
         <v>0</v>
       </c>
-      <c r="N50" s="26"/>
-      <c r="O50" s="25" t="s">
+      <c r="N50" s="25"/>
+      <c r="O50" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P50" s="28">
+      <c r="P50" s="26">
         <f t="shared" ref="P50" si="162">MAX(B50,D50,F50,H50,J50,L50,N50)</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="30">
+      <c r="Q50" s="28">
         <f t="shared" ref="Q50" si="163">P50-P48</f>
         <v>0</v>
       </c>
@@ -3347,62 +3352,62 @@
       <c r="B51" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="7"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="10" t="s">
+      <c r="E51" s="13"/>
+      <c r="F51" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="12" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I51" s="13"/>
-      <c r="J51" s="21" t="s">
+      <c r="I51" s="14"/>
+      <c r="J51" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="22"/>
-      <c r="L51" s="23" t="s">
+      <c r="K51" s="23"/>
+      <c r="L51" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M51" s="24"/>
-      <c r="N51" s="25" t="s">
+      <c r="N51" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O51" s="26"/>
-      <c r="P51" s="27" t="s">
+      <c r="O51" s="25"/>
+      <c r="P51" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q51" s="27" t="s">
+      <c r="Q51" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="5"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7">
+      <c r="B52" s="12"/>
+      <c r="C52" s="12">
         <f t="shared" si="151"/>
         <v>0</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9">
+      <c r="D52" s="13"/>
+      <c r="E52" s="13">
         <f t="shared" ref="E52" si="164">D52-B52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9">
         <f t="shared" ref="G52" si="165">F52-D52</f>
         <v>0</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13">
+      <c r="H52" s="14"/>
+      <c r="I52" s="14">
         <f t="shared" ref="I52" si="166">H52-F52</f>
         <v>0</v>
       </c>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22">
+      <c r="J52" s="23"/>
+      <c r="K52" s="23">
         <f t="shared" ref="K52" si="167">J52-H52</f>
         <v>0</v>
       </c>
@@ -3411,15 +3416,15 @@
         <f t="shared" ref="M52" si="168">L52-J52</f>
         <v>0</v>
       </c>
-      <c r="N52" s="26"/>
-      <c r="O52" s="25" t="s">
+      <c r="N52" s="25"/>
+      <c r="O52" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P52" s="28">
+      <c r="P52" s="26">
         <f t="shared" ref="P52" si="169">MAX(B52,D52,F52,H52,J52,L52,N52)</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="30">
+      <c r="Q52" s="28">
         <f t="shared" ref="Q52" si="170">P52-P50</f>
         <v>0</v>
       </c>
@@ -3431,62 +3436,62 @@
       <c r="B53" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="7"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="10" t="s">
+      <c r="E53" s="13"/>
+      <c r="F53" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="12" t="s">
+      <c r="G53" s="9"/>
+      <c r="H53" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I53" s="13"/>
-      <c r="J53" s="21" t="s">
+      <c r="I53" s="14"/>
+      <c r="J53" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K53" s="22"/>
-      <c r="L53" s="23" t="s">
+      <c r="K53" s="23"/>
+      <c r="L53" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M53" s="24"/>
-      <c r="N53" s="25" t="s">
+      <c r="N53" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O53" s="26"/>
-      <c r="P53" s="27" t="s">
+      <c r="O53" s="25"/>
+      <c r="P53" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q53" s="27" t="s">
+      <c r="Q53" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="5"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12">
         <f t="shared" ref="C54:C58" si="171">B54-L52</f>
         <v>0</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9">
+      <c r="D54" s="13"/>
+      <c r="E54" s="13">
         <f t="shared" ref="E54" si="172">D54-B54</f>
         <v>0</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9">
         <f t="shared" ref="G54" si="173">F54-D54</f>
         <v>0</v>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13">
+      <c r="H54" s="14"/>
+      <c r="I54" s="14">
         <f t="shared" ref="I54" si="174">H54-F54</f>
         <v>0</v>
       </c>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22">
+      <c r="J54" s="23"/>
+      <c r="K54" s="23">
         <f t="shared" ref="K54" si="175">J54-H54</f>
         <v>0</v>
       </c>
@@ -3495,15 +3500,15 @@
         <f t="shared" ref="M54" si="176">L54-J54</f>
         <v>0</v>
       </c>
-      <c r="N54" s="26"/>
-      <c r="O54" s="25" t="s">
+      <c r="N54" s="25"/>
+      <c r="O54" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P54" s="28">
+      <c r="P54" s="26">
         <f t="shared" ref="P54" si="177">MAX(B54,D54,F54,H54,J54,L54,N54)</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="30">
+      <c r="Q54" s="28">
         <f t="shared" ref="Q54" si="178">P54-P52</f>
         <v>0</v>
       </c>
@@ -3515,62 +3520,62 @@
       <c r="B55" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="7"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="10" t="s">
+      <c r="E55" s="13"/>
+      <c r="F55" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="12" t="s">
+      <c r="G55" s="9"/>
+      <c r="H55" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I55" s="13"/>
-      <c r="J55" s="21" t="s">
+      <c r="I55" s="14"/>
+      <c r="J55" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K55" s="22"/>
-      <c r="L55" s="23" t="s">
+      <c r="K55" s="23"/>
+      <c r="L55" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M55" s="24"/>
-      <c r="N55" s="25" t="s">
+      <c r="N55" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O55" s="26"/>
-      <c r="P55" s="27" t="s">
+      <c r="O55" s="25"/>
+      <c r="P55" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q55" s="27" t="s">
+      <c r="Q55" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="5"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7">
+      <c r="B56" s="12"/>
+      <c r="C56" s="12">
         <f t="shared" si="171"/>
         <v>0</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9">
+      <c r="D56" s="13"/>
+      <c r="E56" s="13">
         <f t="shared" ref="E56" si="179">D56-B56</f>
         <v>0</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11">
+      <c r="F56" s="9"/>
+      <c r="G56" s="9">
         <f t="shared" ref="G56" si="180">F56-D56</f>
         <v>0</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13">
+      <c r="H56" s="14"/>
+      <c r="I56" s="14">
         <f t="shared" ref="I56" si="181">H56-F56</f>
         <v>0</v>
       </c>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22">
+      <c r="J56" s="23"/>
+      <c r="K56" s="23">
         <f t="shared" ref="K56" si="182">J56-H56</f>
         <v>0</v>
       </c>
@@ -3579,15 +3584,15 @@
         <f t="shared" ref="M56" si="183">L56-J56</f>
         <v>0</v>
       </c>
-      <c r="N56" s="26"/>
-      <c r="O56" s="25" t="s">
+      <c r="N56" s="25"/>
+      <c r="O56" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P56" s="28">
+      <c r="P56" s="26">
         <f t="shared" ref="P56" si="184">MAX(B56,D56,F56,H56,J56,L56,N56)</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="30">
+      <c r="Q56" s="28">
         <f t="shared" ref="Q56" si="185">P56-P54</f>
         <v>0</v>
       </c>
@@ -3599,62 +3604,62 @@
       <c r="B57" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="7"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="10" t="s">
+      <c r="E57" s="13"/>
+      <c r="F57" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="12" t="s">
+      <c r="G57" s="9"/>
+      <c r="H57" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I57" s="13"/>
-      <c r="J57" s="21" t="s">
+      <c r="I57" s="14"/>
+      <c r="J57" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K57" s="22"/>
-      <c r="L57" s="23" t="s">
+      <c r="K57" s="23"/>
+      <c r="L57" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M57" s="24"/>
-      <c r="N57" s="25" t="s">
+      <c r="N57" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O57" s="26"/>
-      <c r="P57" s="27" t="s">
+      <c r="O57" s="25"/>
+      <c r="P57" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q57" s="27" t="s">
+      <c r="Q57" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="5"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12">
         <f t="shared" si="171"/>
         <v>0</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9">
+      <c r="D58" s="13"/>
+      <c r="E58" s="13">
         <f t="shared" ref="E58" si="186">D58-B58</f>
         <v>0</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9">
         <f t="shared" ref="G58" si="187">F58-D58</f>
         <v>0</v>
       </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13">
+      <c r="H58" s="14"/>
+      <c r="I58" s="14">
         <f t="shared" ref="I58" si="188">H58-F58</f>
         <v>0</v>
       </c>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22">
+      <c r="J58" s="23"/>
+      <c r="K58" s="23">
         <f t="shared" ref="K58" si="189">J58-H58</f>
         <v>0</v>
       </c>
@@ -3663,15 +3668,15 @@
         <f t="shared" ref="M58" si="190">L58-J58</f>
         <v>0</v>
       </c>
-      <c r="N58" s="26"/>
-      <c r="O58" s="25" t="s">
+      <c r="N58" s="25"/>
+      <c r="O58" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P58" s="28">
+      <c r="P58" s="26">
         <f t="shared" ref="P58" si="191">MAX(B58,D58,F58,H58,J58,L58,N58)</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="30">
+      <c r="Q58" s="28">
         <f t="shared" ref="Q58" si="192">P58-P56</f>
         <v>0</v>
       </c>
@@ -3683,62 +3688,62 @@
       <c r="B59" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="7"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="10" t="s">
+      <c r="E59" s="13"/>
+      <c r="F59" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="12" t="s">
+      <c r="G59" s="9"/>
+      <c r="H59" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="13"/>
-      <c r="J59" s="21" t="s">
+      <c r="I59" s="14"/>
+      <c r="J59" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K59" s="22"/>
-      <c r="L59" s="23" t="s">
+      <c r="K59" s="23"/>
+      <c r="L59" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M59" s="24"/>
-      <c r="N59" s="25" t="s">
+      <c r="N59" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O59" s="26"/>
-      <c r="P59" s="27" t="s">
+      <c r="O59" s="25"/>
+      <c r="P59" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q59" s="27" t="s">
+      <c r="Q59" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="5"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7">
+      <c r="B60" s="12"/>
+      <c r="C60" s="12">
         <f t="shared" ref="C60:C64" si="193">B60-L58</f>
         <v>0</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9">
+      <c r="D60" s="13"/>
+      <c r="E60" s="13">
         <f t="shared" ref="E60" si="194">D60-B60</f>
         <v>0</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9">
         <f t="shared" ref="G60" si="195">F60-D60</f>
         <v>0</v>
       </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13">
+      <c r="H60" s="14"/>
+      <c r="I60" s="14">
         <f t="shared" ref="I60" si="196">H60-F60</f>
         <v>0</v>
       </c>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22">
+      <c r="J60" s="23"/>
+      <c r="K60" s="23">
         <f t="shared" ref="K60" si="197">J60-H60</f>
         <v>0</v>
       </c>
@@ -3747,15 +3752,15 @@
         <f t="shared" ref="M60" si="198">L60-J60</f>
         <v>0</v>
       </c>
-      <c r="N60" s="26"/>
-      <c r="O60" s="25" t="s">
+      <c r="N60" s="25"/>
+      <c r="O60" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P60" s="28">
+      <c r="P60" s="26">
         <f t="shared" ref="P60" si="199">MAX(B60,D60,F60,H60,J60,L60,N60)</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="30">
+      <c r="Q60" s="28">
         <f t="shared" ref="Q60" si="200">P60-P58</f>
         <v>0</v>
       </c>
@@ -3767,62 +3772,62 @@
       <c r="B61" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="7"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="10" t="s">
+      <c r="E61" s="13"/>
+      <c r="F61" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="12" t="s">
+      <c r="G61" s="9"/>
+      <c r="H61" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I61" s="13"/>
-      <c r="J61" s="21" t="s">
+      <c r="I61" s="14"/>
+      <c r="J61" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K61" s="22"/>
-      <c r="L61" s="23" t="s">
+      <c r="K61" s="23"/>
+      <c r="L61" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M61" s="24"/>
-      <c r="N61" s="25" t="s">
+      <c r="N61" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O61" s="26"/>
-      <c r="P61" s="27" t="s">
+      <c r="O61" s="25"/>
+      <c r="P61" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q61" s="27" t="s">
+      <c r="Q61" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="5"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7">
+      <c r="B62" s="12"/>
+      <c r="C62" s="12">
         <f t="shared" si="193"/>
         <v>0</v>
       </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9">
+      <c r="D62" s="13"/>
+      <c r="E62" s="13">
         <f t="shared" ref="E62" si="201">D62-B62</f>
         <v>0</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11">
+      <c r="F62" s="9"/>
+      <c r="G62" s="9">
         <f t="shared" ref="G62" si="202">F62-D62</f>
         <v>0</v>
       </c>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13">
+      <c r="H62" s="14"/>
+      <c r="I62" s="14">
         <f t="shared" ref="I62" si="203">H62-F62</f>
         <v>0</v>
       </c>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22">
+      <c r="J62" s="23"/>
+      <c r="K62" s="23">
         <f t="shared" ref="K62" si="204">J62-H62</f>
         <v>0</v>
       </c>
@@ -3831,15 +3836,15 @@
         <f t="shared" ref="M62" si="205">L62-J62</f>
         <v>0</v>
       </c>
-      <c r="N62" s="26"/>
-      <c r="O62" s="25" t="s">
+      <c r="N62" s="25"/>
+      <c r="O62" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P62" s="28">
+      <c r="P62" s="26">
         <f t="shared" ref="P62" si="206">MAX(B62,D62,F62,H62,J62,L62,N62)</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="30">
+      <c r="Q62" s="28">
         <f t="shared" ref="Q62" si="207">P62-P60</f>
         <v>0</v>
       </c>
@@ -3851,62 +3856,62 @@
       <c r="B63" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="7"/>
+      <c r="C63" s="12"/>
       <c r="D63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="10" t="s">
+      <c r="E63" s="13"/>
+      <c r="F63" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="12" t="s">
+      <c r="G63" s="9"/>
+      <c r="H63" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I63" s="13"/>
-      <c r="J63" s="21" t="s">
+      <c r="I63" s="14"/>
+      <c r="J63" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K63" s="22"/>
-      <c r="L63" s="23" t="s">
+      <c r="K63" s="23"/>
+      <c r="L63" s="20" t="s">
         <v>19</v>
       </c>
       <c r="M63" s="24"/>
-      <c r="N63" s="25" t="s">
+      <c r="N63" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O63" s="26"/>
-      <c r="P63" s="27" t="s">
+      <c r="O63" s="25"/>
+      <c r="P63" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q63" s="27" t="s">
+      <c r="Q63" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="5"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7">
+      <c r="B64" s="12"/>
+      <c r="C64" s="12">
         <f t="shared" si="193"/>
         <v>0</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9">
+      <c r="D64" s="13"/>
+      <c r="E64" s="13">
         <f t="shared" ref="E64" si="208">D64-B64</f>
         <v>0</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11">
+      <c r="F64" s="9"/>
+      <c r="G64" s="9">
         <f t="shared" ref="G64" si="209">F64-D64</f>
         <v>0</v>
       </c>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13">
+      <c r="H64" s="14"/>
+      <c r="I64" s="14">
         <f t="shared" ref="I64" si="210">H64-F64</f>
         <v>0</v>
       </c>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22">
+      <c r="J64" s="23"/>
+      <c r="K64" s="23">
         <f t="shared" ref="K64" si="211">J64-H64</f>
         <v>0</v>
       </c>
@@ -3915,15 +3920,15 @@
         <f t="shared" ref="M64" si="212">L64-J64</f>
         <v>0</v>
       </c>
-      <c r="N64" s="26"/>
-      <c r="O64" s="25" t="s">
+      <c r="N64" s="25"/>
+      <c r="O64" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P64" s="28">
+      <c r="P64" s="26">
         <f t="shared" ref="P64" si="213">MAX(B64,D64,F64,H64,J64,L64,N64)</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="30">
+      <c r="Q64" s="28">
         <f t="shared" ref="Q64" si="214">P64-P62</f>
         <v>0</v>
       </c>
@@ -4192,10 +4197,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="A1:Q64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -4219,56 +4228,56 @@
     <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="25.25" spans="1:17">
+    <row r="1" customFormat="1" ht="25.5" customHeight="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" customFormat="1" spans="1:17">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20">
+      <c r="O2" s="7"/>
+      <c r="P2" s="18">
         <f ca="1">TODAY()</f>
-        <v>44986</v>
-      </c>
-      <c r="Q2" s="29">
+        <v>44987</v>
+      </c>
+      <c r="Q2" s="27">
         <f ca="1">NOW()</f>
-        <v>44986.7779166667</v>
+        <v>44987.4468402778</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:17">
@@ -4282,87 +4291,91 @@
       <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="21" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25" t="s">
+      <c r="M3" s="7"/>
+      <c r="N3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27" t="s">
+      <c r="O3" s="7"/>
+      <c r="P3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:17">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12">
         <v>15</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="12">
         <f>B4+38</f>
         <v>53</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="13">
         <v>85</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="13">
         <f t="shared" ref="E4:I4" si="0">D4-B4</f>
         <v>70</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>135</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="14">
         <v>181</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="14">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="J4" s="22">
-        <v>228</v>
-      </c>
-      <c r="K4" s="22">
-        <f>J4-H4</f>
-        <v>47</v>
-      </c>
-      <c r="L4" s="24"/>
+      <c r="J4" s="23">
+        <v>233</v>
+      </c>
+      <c r="K4" s="23">
+        <f t="shared" ref="K4:K8" si="1">J4-H4</f>
+        <v>52</v>
+      </c>
+      <c r="L4" s="24">
+        <v>267</v>
+      </c>
       <c r="M4" s="24">
-        <f>L4-J4</f>
-        <v>-228</v>
-      </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="25" t="s">
+        <f t="shared" ref="M4:M8" si="2">L4-J4</f>
+        <v>34</v>
+      </c>
+      <c r="N4" s="25">
+        <v>278</v>
+      </c>
+      <c r="O4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="28">
-        <f>MAX(B4,D4,F4,H4,J4,L4,N4)</f>
-        <v>228</v>
-      </c>
-      <c r="Q4" s="30">
+      <c r="P4" s="26">
+        <f t="shared" ref="P4:P8" si="3">MAX(B4,D4,F4,H4,J4,L4,N4)</f>
+        <v>278</v>
+      </c>
+      <c r="Q4" s="28">
         <f>P4+38</f>
-        <v>266</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:17">
@@ -4376,86 +4389,168 @@
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="21" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23" t="s">
+      <c r="K5" s="7"/>
+      <c r="L5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25" t="s">
+      <c r="M5" s="7"/>
+      <c r="N5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="27" t="s">
+      <c r="O5" s="7"/>
+      <c r="P5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:17">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12">
+        <v>317</v>
+      </c>
+      <c r="C6" s="12">
         <f>B6-L4</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
-        <f t="shared" ref="E6:I6" si="1">D6-B6</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11">
+        <v>50</v>
+      </c>
+      <c r="D6" s="13">
+        <v>375</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" ref="E6:I6" si="4">D6-B6</f>
+        <v>58</v>
+      </c>
+      <c r="F6" s="9">
+        <v>426</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14">
+        <f t="shared" si="4"/>
+        <v>-426</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22">
-        <f>J6-H6</f>
         <v>0</v>
       </c>
       <c r="L6" s="24"/>
       <c r="M6" s="24">
-        <f>L6-J6</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="25" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="25"/>
+      <c r="O6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="P6" s="28">
-        <f>MAX(B6,D6,F6,H6,J6,L6,N6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="30">
+      <c r="P6" s="26">
+        <f t="shared" si="3"/>
+        <v>426</v>
+      </c>
+      <c r="Q6" s="28">
         <f>P6-P4</f>
-        <v>-228</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:17">
       <c r="A7" s="5">
         <v>44988</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:1">
-      <c r="A8" s="14"/>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:17">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12">
+        <f>B8-L6</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13">
+        <f t="shared" ref="E8:I8" si="5">D8-B8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="25"/>
+      <c r="O8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="28">
+        <f>P8-P6</f>
+        <v>-426</v>
+      </c>
     </row>
     <row r="9" customFormat="1" spans="1:1">
       <c r="A9" s="5">
@@ -4463,7 +4558,7 @@
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="11"/>
     </row>
     <row r="11" customFormat="1" spans="1:1">
       <c r="A11" s="5">
@@ -4471,7 +4566,7 @@
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:4">
-      <c r="A12" s="14"/>
+      <c r="A12" s="11"/>
       <c r="D12" s="15"/>
     </row>
     <row r="13" customFormat="1" spans="1:4">
@@ -4481,7 +4576,7 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" customFormat="1" spans="1:4">
-      <c r="A14" s="14"/>
+      <c r="A14" s="11"/>
       <c r="D14" s="15"/>
     </row>
     <row r="15" customFormat="1" spans="1:4">
@@ -4491,7 +4586,7 @@
       <c r="D15" s="16"/>
     </row>
     <row r="16" customFormat="1" spans="1:1">
-      <c r="A16" s="14"/>
+      <c r="A16" s="11"/>
     </row>
     <row r="17" customFormat="1" spans="1:1">
       <c r="A17" s="5">
@@ -4499,7 +4594,7 @@
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:1">
-      <c r="A18" s="14"/>
+      <c r="A18" s="11"/>
     </row>
     <row r="19" customFormat="1" spans="1:1">
       <c r="A19" s="5">
@@ -4507,7 +4602,7 @@
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:1">
-      <c r="A20" s="14"/>
+      <c r="A20" s="11"/>
     </row>
     <row r="21" customFormat="1" spans="1:1">
       <c r="A21" s="5">
@@ -4515,7 +4610,7 @@
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:1">
-      <c r="A22" s="14"/>
+      <c r="A22" s="11"/>
     </row>
     <row r="23" customFormat="1" spans="1:1">
       <c r="A23" s="5">
@@ -4523,7 +4618,7 @@
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:1">
-      <c r="A24" s="14"/>
+      <c r="A24" s="11"/>
     </row>
     <row r="25" customFormat="1" spans="1:1">
       <c r="A25" s="5">
@@ -4531,7 +4626,7 @@
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:1">
-      <c r="A26" s="14"/>
+      <c r="A26" s="11"/>
     </row>
     <row r="27" customFormat="1" spans="1:1">
       <c r="A27" s="5">
@@ -4539,7 +4634,7 @@
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:1">
-      <c r="A28" s="14"/>
+      <c r="A28" s="11"/>
     </row>
     <row r="29" customFormat="1" spans="1:1">
       <c r="A29" s="5">
@@ -4547,7 +4642,7 @@
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:1">
-      <c r="A30" s="14"/>
+      <c r="A30" s="11"/>
     </row>
     <row r="31" customFormat="1" spans="1:1">
       <c r="A31" s="5">
@@ -4555,7 +4650,7 @@
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:1">
-      <c r="A32" s="14"/>
+      <c r="A32" s="11"/>
     </row>
     <row r="33" customFormat="1" spans="1:1">
       <c r="A33" s="5">
@@ -4563,7 +4658,7 @@
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:1">
-      <c r="A34" s="14"/>
+      <c r="A34" s="11"/>
     </row>
     <row r="35" customFormat="1" spans="1:1">
       <c r="A35" s="5">
@@ -4571,7 +4666,7 @@
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:1">
-      <c r="A36" s="14"/>
+      <c r="A36" s="11"/>
     </row>
     <row r="37" customFormat="1" spans="1:1">
       <c r="A37" s="5">
@@ -4579,7 +4674,7 @@
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:1">
-      <c r="A38" s="14"/>
+      <c r="A38" s="11"/>
     </row>
     <row r="39" customFormat="1" spans="1:1">
       <c r="A39" s="5">
@@ -4587,7 +4682,7 @@
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:1">
-      <c r="A40" s="14"/>
+      <c r="A40" s="11"/>
     </row>
     <row r="41" customFormat="1" spans="1:1">
       <c r="A41" s="5">
@@ -4595,7 +4690,7 @@
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:1">
-      <c r="A42" s="14"/>
+      <c r="A42" s="11"/>
     </row>
     <row r="43" customFormat="1" spans="1:1">
       <c r="A43" s="5">
@@ -4603,7 +4698,7 @@
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:1">
-      <c r="A44" s="14"/>
+      <c r="A44" s="11"/>
     </row>
     <row r="45" customFormat="1" spans="1:1">
       <c r="A45" s="5">
@@ -4611,7 +4706,7 @@
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:1">
-      <c r="A46" s="14"/>
+      <c r="A46" s="11"/>
     </row>
     <row r="47" customFormat="1" spans="1:1">
       <c r="A47" s="5">
@@ -4619,7 +4714,7 @@
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:1">
-      <c r="A48" s="14"/>
+      <c r="A48" s="11"/>
     </row>
     <row r="49" customFormat="1" spans="1:1">
       <c r="A49" s="5">
@@ -4627,7 +4722,7 @@
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:1">
-      <c r="A50" s="14"/>
+      <c r="A50" s="11"/>
     </row>
     <row r="51" customFormat="1" spans="1:1">
       <c r="A51" s="5">
@@ -4635,7 +4730,7 @@
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:1">
-      <c r="A52" s="14"/>
+      <c r="A52" s="11"/>
     </row>
     <row r="53" customFormat="1" spans="1:1">
       <c r="A53" s="5">
@@ -4643,7 +4738,7 @@
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:1">
-      <c r="A54" s="14"/>
+      <c r="A54" s="11"/>
     </row>
     <row r="55" customFormat="1" spans="1:1">
       <c r="A55" s="5">
@@ -4651,7 +4746,7 @@
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:1">
-      <c r="A56" s="14"/>
+      <c r="A56" s="11"/>
     </row>
     <row r="57" customFormat="1" spans="1:1">
       <c r="A57" s="5">
@@ -4659,13 +4754,37 @@
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:12">
-      <c r="A58" s="14"/>
+      <c r="A58" s="11"/>
       <c r="L58">
         <v>3670</v>
       </c>
     </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="5">
+        <v>45014</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="11"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="5">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="11"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="5">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="55">
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:O2"/>
@@ -4683,6 +4802,13 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -4711,6 +4837,9 @@
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
